--- a/Block3_MachineLearning/Block3_ConversionRate/Modèles.xlsx
+++ b/Block3_MachineLearning/Block3_ConversionRate/Modèles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celine\Documents\3_Data\2_Jedha\Projet\Jedha_Projet4_ConversionRate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Celine\Documents\3_Data\2_Jedha\Certification_JEDHA\Block3_MachineLearning\Block3_ConversionRate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8A1C9A-8B71-46B4-9D63-3D01038FDA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8294854B-8260-4935-A1B4-9A4967291577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{1DBCC20D-4CC6-4848-88C2-006A2F6F79BC}"/>
   </bookViews>
@@ -1100,17 +1100,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1437,31 +1427,31 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3"/>
-    <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.85546875" style="3"/>
+    <col min="1" max="1" width="10.81640625" style="3"/>
+    <col min="2" max="2" width="18.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28.54296875" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +1459,7 @@
         <v>284580</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,7 +1473,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="E4" s="3" t="s">
         <v>152</v>
       </c>
@@ -1491,7 +1481,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="87" x14ac:dyDescent="0.35">
       <c r="E5" s="3" t="s">
         <v>154</v>
       </c>
@@ -1499,17 +1489,17 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1595,7 +1585,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="60" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="58" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1614,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
@@ -1647,7 +1637,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1667,7 +1657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
@@ -1684,7 +1674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1701,7 +1691,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="58" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -1718,7 +1708,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -1732,7 +1722,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -1740,467 +1730,467 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>142</v>
       </c>
@@ -2217,25 +2207,25 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" customWidth="1"/>
+    <col min="3" max="3" width="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>214</v>
       </c>
@@ -2270,7 +2260,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -2303,7 +2293,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>170</v>
       </c>
@@ -2336,7 +2326,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -2369,7 +2359,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -2402,7 +2392,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -2441,7 +2431,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>178</v>
       </c>
@@ -2480,7 +2470,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -2519,7 +2509,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>180</v>
       </c>
@@ -2558,7 +2548,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>181</v>
       </c>
@@ -2576,7 +2566,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2615,7 +2605,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -2648,7 +2638,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>184</v>
       </c>
@@ -2687,7 +2677,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>185</v>
       </c>
@@ -2723,7 +2713,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>186</v>
       </c>
@@ -2756,7 +2746,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>187</v>
       </c>
@@ -2786,7 +2776,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>188</v>
       </c>
@@ -2819,7 +2809,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>189</v>
       </c>
@@ -2858,7 +2848,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>190</v>
       </c>
@@ -2897,7 +2887,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>191</v>
       </c>
@@ -2912,7 +2902,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -2948,7 +2938,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>247</v>
       </c>
@@ -2973,7 +2963,7 @@
         <v>0.76321033878857403</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>248</v>
       </c>
@@ -2995,7 +2985,7 @@
         <v>0.72011792603986402</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>249</v>
       </c>
@@ -3017,7 +3007,7 @@
         <v>0.76100856556882601</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>250</v>
       </c>
@@ -3038,7 +3028,7 @@
         <v>0.76362319715164995</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
         <v>251</v>
       </c>
@@ -3063,7 +3053,7 @@
         <v>0.76381606701621096</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>252</v>
       </c>
@@ -3090,7 +3080,7 @@
         <v>0.76956243081046405</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
         <v>253</v>
       </c>
@@ -3114,7 +3104,7 @@
         <v>0.76366928183464</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>256</v>
       </c>
@@ -3138,7 +3128,7 @@
         <v>0.76883541642331499</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>260</v>
       </c>
@@ -3165,7 +3155,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>261</v>
       </c>
@@ -3186,35 +3176,35 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="G32" s="12"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3421,7 +3411,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I17">
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3503,6 +3493,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13 J15:J16">
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -3523,18 +3525,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
